--- a/branches/Design/ERP.xlsx
+++ b/branches/Design/ERP.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="155">
   <si>
     <t>User Group and Modules</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>Attendance / Leave</t>
-  </si>
-  <si>
-    <t>Syllabus and Study Material</t>
-  </si>
-  <si>
-    <t>Academics (Examination &amp; Results, Homework &amp; Assignments, )</t>
   </si>
   <si>
     <t>System Config.</t>
@@ -285,10 +279,6 @@
 View all subject teacher list of self class (if class teacher)</t>
   </si>
   <si>
-    <t>Appraisal Form
-Download salary slips</t>
-  </si>
-  <si>
     <t>View library books allotted to them
 View Library Book searching &amp; reservation
 View List of new arrivals</t>
@@ -319,11 +309,6 @@
 View approve or rejection status</t>
   </si>
   <si>
-    <t>View syllabus
-Add Study material, Term papers, Assignments &amp; Question bank
-Update syllabus completed</t>
-  </si>
-  <si>
     <t>View Exam schedule
 View all subjects marks of self class (if class teacher)
 View Academic schedule
@@ -374,9 +359,6 @@
   </si>
   <si>
     <t>View full Student Details (with photograph)</t>
-  </si>
-  <si>
-    <t>View full Teacher Details (with photograph)</t>
   </si>
   <si>
     <t>View full Staff Details (with photograph)
@@ -685,6 +667,41 @@
    4. Ledgers
    5. Balance Sheet
    6. Profit/Loss Statement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Appraisal Form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Download salary slips</t>
+    </r>
+  </si>
+  <si>
+    <t>View syllabus
+Add Study material, Term papers, Assignments &amp; Question bank
+Update syllabus completed
+Homework &amp; Assignments</t>
+  </si>
+  <si>
+    <t>Academics (Syllabus , Study Material, Homework &amp; Assignments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Examination &amp; Results</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1166,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1387,6 +1404,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3211,10 +3234,10 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3412,18 +3435,18 @@
         <v>16</v>
       </c>
       <c r="S6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="104.25" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -3445,61 +3468,61 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="405">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="N8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="17"/>
@@ -3507,65 +3530,65 @@
     </row>
     <row r="9" spans="1:23" s="22" customFormat="1" ht="119.25" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="21" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="R9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="S9" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="T9" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="U9" s="20"/>
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="105">
       <c r="A10" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="20"/>
       <c r="D10" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -3573,83 +3596,82 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T10" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U10" s="20"/>
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" ht="62.25" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>60</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="85"/>
       <c r="H11" s="20"/>
       <c r="I11" s="28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R11" s="28" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="T11" s="28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="U11" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="N1:N5"/>
     <mergeCell ref="A1:B6"/>
     <mergeCell ref="E1:E5"/>
@@ -4269,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18">
       <c r="A1" s="82" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -4285,7 +4307,7 @@
     </row>
     <row r="3" spans="1:18" ht="44.25" customHeight="1" thickBot="1">
       <c r="A3" s="50" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B3" s="50" t="str">
         <f>[2]UserRoles!A4</f>
@@ -4358,7 +4380,7 @@
     </row>
     <row r="4" spans="1:18" ht="13.5" thickBot="1">
       <c r="A4" s="43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -4380,7 +4402,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="52"/>
@@ -4391,7 +4413,7 @@
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
@@ -4404,7 +4426,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
@@ -4415,12 +4437,12 @@
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="57"/>
       <c r="M6" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
@@ -4430,14 +4452,14 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
@@ -4445,14 +4467,14 @@
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K7" s="56"/>
       <c r="L7" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N7" s="56"/>
       <c r="O7" s="56"/>
@@ -4462,7 +4484,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="50" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="56"/>
@@ -4473,12 +4495,12 @@
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K8" s="56"/>
       <c r="L8" s="57"/>
       <c r="M8" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
@@ -4488,7 +4510,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
@@ -4499,7 +4521,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="57"/>
@@ -4512,7 +4534,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B10" s="55"/>
       <c r="C10" s="56"/>
@@ -4524,12 +4546,12 @@
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L10" s="57"/>
       <c r="M10" s="56"/>
       <c r="N10" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O10" s="56"/>
       <c r="P10" s="56"/>
@@ -4538,7 +4560,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="50" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="56"/>
@@ -4550,12 +4572,12 @@
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
       <c r="K11" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L11" s="57"/>
       <c r="M11" s="56"/>
       <c r="N11" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O11" s="56"/>
       <c r="P11" s="56"/>
@@ -4564,7 +4586,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="56"/>
@@ -4576,12 +4598,12 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L12" s="57"/>
       <c r="M12" s="56"/>
       <c r="N12" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O12" s="56"/>
       <c r="P12" s="56"/>
@@ -4590,7 +4612,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="56"/>
@@ -4602,12 +4624,12 @@
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L13" s="57"/>
       <c r="M13" s="56"/>
       <c r="N13" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O13" s="56"/>
       <c r="P13" s="56"/>
@@ -4616,7 +4638,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="56"/>
@@ -4628,12 +4650,12 @@
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
       <c r="K14" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L14" s="57"/>
       <c r="M14" s="56"/>
       <c r="N14" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O14" s="56"/>
       <c r="P14" s="56"/>
@@ -4642,7 +4664,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="50" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="56"/>
@@ -4654,12 +4676,12 @@
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L15" s="57"/>
       <c r="M15" s="56"/>
       <c r="N15" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O15" s="56"/>
       <c r="P15" s="56"/>
@@ -4668,7 +4690,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="58" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="56"/>
@@ -4679,7 +4701,7 @@
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="57"/>
@@ -4692,7 +4714,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="56"/>
@@ -4714,7 +4736,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -4736,14 +4758,14 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -4751,32 +4773,32 @@
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L19" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O19" s="56"/>
       <c r="P19" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B20" s="55"/>
       <c r="C20" s="56"/>
@@ -4798,341 +4820,341 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L21" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R21" s="56"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L22" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M22" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P22" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R22" s="56"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L23" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P23" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R23" s="56"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L24" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P24" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R24" s="56"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L25" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P25" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R25" s="56"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P26" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R26" s="56"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
       <c r="G27" s="56"/>
       <c r="H27" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J27" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="56"/>
       <c r="N27" s="56"/>
       <c r="O27" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P27" s="56"/>
       <c r="Q27" s="64"/>
@@ -5140,7 +5162,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="65" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B28" s="60"/>
       <c r="C28" s="61"/>
@@ -5162,17 +5184,17 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
       <c r="F29" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H29" s="56"/>
       <c r="I29" s="56"/>
@@ -5188,17 +5210,17 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="50" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G30" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
@@ -5214,17 +5236,17 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="50" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
       <c r="F31" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
@@ -5240,7 +5262,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
@@ -5249,20 +5271,20 @@
       <c r="F32" s="56"/>
       <c r="G32" s="56"/>
       <c r="H32" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J32" s="56"/>
       <c r="K32" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L32" s="57"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
       <c r="O32" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P32" s="56"/>
       <c r="Q32" s="64"/>
@@ -5270,7 +5292,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
@@ -5279,14 +5301,14 @@
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
       <c r="H33" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I33" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J33" s="56"/>
       <c r="K33" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L33" s="57"/>
       <c r="M33" s="56"/>
@@ -5294,13 +5316,13 @@
       <c r="O33" s="56"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="56"/>
@@ -5312,7 +5334,7 @@
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L34" s="57"/>
       <c r="M34" s="56"/>
@@ -5324,7 +5346,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="50" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B35" s="55"/>
       <c r="C35" s="56"/>
@@ -5336,7 +5358,7 @@
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
       <c r="K35" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L35" s="57"/>
       <c r="M35" s="56"/>
@@ -5348,7 +5370,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="56"/>
@@ -5357,10 +5379,10 @@
       <c r="F36" s="56"/>
       <c r="G36" s="56"/>
       <c r="H36" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
@@ -5368,7 +5390,7 @@
       <c r="M36" s="56"/>
       <c r="N36" s="56"/>
       <c r="O36" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P36" s="56"/>
       <c r="Q36" s="64"/>
@@ -5376,7 +5398,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="50" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="56"/>
@@ -5398,16 +5420,16 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="50" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B38" s="55"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G38" s="56"/>
       <c r="H38" s="56"/>
@@ -5424,7 +5446,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="65" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B39" s="60"/>
       <c r="C39" s="61"/>
@@ -5446,16 +5468,16 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="50" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
@@ -5472,7 +5494,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="50" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="56"/>
@@ -5494,7 +5516,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B42" s="55"/>
       <c r="C42" s="56"/>
@@ -5516,7 +5538,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="56"/>
@@ -5538,7 +5560,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="56"/>
@@ -5550,7 +5572,7 @@
       <c r="I44" s="56"/>
       <c r="J44" s="56"/>
       <c r="K44" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L44" s="57"/>
       <c r="M44" s="56"/>
@@ -5562,7 +5584,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B45" s="55"/>
       <c r="C45" s="56"/>
@@ -5574,7 +5596,7 @@
       <c r="I45" s="56"/>
       <c r="J45" s="56"/>
       <c r="K45" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L45" s="57"/>
       <c r="M45" s="56"/>
@@ -5586,7 +5608,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="65" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B46" s="60"/>
       <c r="C46" s="61"/>
@@ -5608,7 +5630,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="50" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="56"/>
@@ -5617,10 +5639,10 @@
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J47" s="66"/>
       <c r="K47" s="66"/>
@@ -5628,7 +5650,7 @@
       <c r="M47" s="56"/>
       <c r="N47" s="56"/>
       <c r="O47" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P47" s="56"/>
       <c r="Q47" s="64"/>
@@ -5636,7 +5658,7 @@
     </row>
     <row r="48" spans="1:18" ht="13.5" customHeight="1">
       <c r="A48" s="50" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="56"/>
@@ -5645,10 +5667,10 @@
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
@@ -5656,7 +5678,7 @@
       <c r="M48" s="56"/>
       <c r="N48" s="56"/>
       <c r="O48" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P48" s="56"/>
       <c r="Q48" s="64"/>
@@ -5664,7 +5686,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="50" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B49" s="55"/>
       <c r="C49" s="56"/>
@@ -5673,30 +5695,30 @@
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J49" s="56"/>
       <c r="K49" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L49" s="57"/>
       <c r="M49" s="56"/>
       <c r="N49" s="56"/>
       <c r="O49" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P49" s="56"/>
       <c r="Q49" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R49" s="56"/>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="56"/>
@@ -5706,11 +5728,11 @@
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
       <c r="I50" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J50" s="56"/>
       <c r="K50" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L50" s="57"/>
       <c r="M50" s="56"/>
@@ -5718,13 +5740,13 @@
       <c r="O50" s="56"/>
       <c r="P50" s="56"/>
       <c r="Q50" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R50" s="56"/>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B51" s="55"/>
       <c r="C51" s="56"/>
@@ -5733,10 +5755,10 @@
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
       <c r="H51" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I51" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J51" s="56"/>
       <c r="K51" s="56"/>
@@ -5744,7 +5766,7 @@
       <c r="M51" s="56"/>
       <c r="N51" s="56"/>
       <c r="O51" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P51" s="56"/>
       <c r="Q51" s="64"/>
@@ -5752,17 +5774,17 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B52" s="55"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
       <c r="F52" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
@@ -5778,7 +5800,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="56"/>
@@ -5787,10 +5809,10 @@
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I53" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J53" s="66"/>
       <c r="K53" s="66"/>
@@ -5798,7 +5820,7 @@
       <c r="M53" s="56"/>
       <c r="N53" s="56"/>
       <c r="O53" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P53" s="56"/>
       <c r="Q53" s="64"/>
@@ -5806,7 +5828,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="50" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B54" s="55"/>
       <c r="C54" s="56"/>
@@ -5815,30 +5837,30 @@
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
       <c r="H54" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I54" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J54" s="56"/>
       <c r="K54" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L54" s="57"/>
       <c r="M54" s="56"/>
       <c r="N54" s="56"/>
       <c r="O54" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P54" s="56"/>
       <c r="Q54" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R54" s="56"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B55" s="55"/>
       <c r="C55" s="56"/>
@@ -5847,10 +5869,10 @@
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
       <c r="H55" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I55" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J55" s="66"/>
       <c r="K55" s="66"/>
@@ -5858,7 +5880,7 @@
       <c r="M55" s="56"/>
       <c r="N55" s="56"/>
       <c r="O55" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P55" s="56"/>
       <c r="Q55" s="64"/>
@@ -5866,7 +5888,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="50" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -5875,30 +5897,30 @@
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J56" s="56"/>
       <c r="K56" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L56" s="57"/>
       <c r="M56" s="56"/>
       <c r="N56" s="56"/>
       <c r="O56" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P56" s="56"/>
       <c r="Q56" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R56" s="56"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B57" s="55"/>
       <c r="C57" s="56"/>
@@ -5920,7 +5942,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="65" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
@@ -5942,12 +5964,12 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B59" s="55"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E59" s="56"/>
       <c r="F59" s="56"/>
@@ -5955,7 +5977,7 @@
       <c r="H59" s="56"/>
       <c r="I59" s="56"/>
       <c r="J59" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K59" s="56"/>
       <c r="L59" s="57"/>
@@ -5968,12 +5990,12 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="50" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B60" s="55"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E60" s="56"/>
       <c r="F60" s="56"/>
@@ -5981,10 +6003,10 @@
       <c r="H60" s="56"/>
       <c r="I60" s="56"/>
       <c r="J60" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K60" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L60" s="57"/>
       <c r="M60" s="56"/>
@@ -5996,12 +6018,12 @@
     </row>
     <row r="61" spans="1:18" ht="13.5" thickBot="1">
       <c r="A61" s="58" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B61" s="55"/>
       <c r="C61" s="56"/>
       <c r="D61" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E61" s="56"/>
       <c r="F61" s="56"/>
@@ -6009,7 +6031,7 @@
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
       <c r="J61" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K61" s="56"/>
       <c r="L61" s="57"/>
@@ -6022,7 +6044,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="67" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
@@ -6044,14 +6066,14 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="68" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B63" s="55"/>
       <c r="C63" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D63" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E63" s="56"/>
       <c r="F63" s="56"/>
@@ -6059,10 +6081,10 @@
       <c r="H63" s="56"/>
       <c r="I63" s="56"/>
       <c r="J63" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K63" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L63" s="57"/>
       <c r="M63" s="56"/>
@@ -6074,14 +6096,14 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="68" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B64" s="55"/>
       <c r="C64" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E64" s="56"/>
       <c r="F64" s="56"/>
@@ -6089,10 +6111,10 @@
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
       <c r="J64" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K64" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L64" s="57"/>
       <c r="M64" s="56"/>
@@ -6104,14 +6126,14 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="68" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B65" s="55"/>
       <c r="C65" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E65" s="56"/>
       <c r="F65" s="56"/>
@@ -6119,7 +6141,7 @@
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
       <c r="J65" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K65" s="56"/>
       <c r="L65" s="57"/>
@@ -6132,7 +6154,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="68" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B66" s="55"/>
       <c r="C66" s="56"/>
@@ -6143,7 +6165,7 @@
       <c r="H66" s="56"/>
       <c r="I66" s="56"/>
       <c r="J66" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K66" s="56"/>
       <c r="L66" s="57"/>
@@ -6156,7 +6178,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="68" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B67" s="55"/>
       <c r="C67" s="56"/>
@@ -6167,7 +6189,7 @@
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K67" s="56"/>
       <c r="L67" s="57"/>
@@ -6180,14 +6202,14 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="68" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B68" s="55"/>
       <c r="C68" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D68" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
@@ -6195,7 +6217,7 @@
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
       <c r="J68" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K68" s="56"/>
       <c r="L68" s="57"/>
@@ -6208,14 +6230,14 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="68" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B69" s="55"/>
       <c r="C69" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D69" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
@@ -6223,7 +6245,7 @@
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
       <c r="J69" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K69" s="56"/>
       <c r="L69" s="57"/>
@@ -6236,7 +6258,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="69" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B70" s="60"/>
       <c r="C70" s="61"/>
@@ -6258,151 +6280,151 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="68" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B71" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
       <c r="E71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L71" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P71" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q71" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R71" s="56"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="68" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C72" s="56"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L72" s="57" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P72" s="56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q72" s="64" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R72" s="56"/>
     </row>
     <row r="73" spans="1:18" ht="13.5" thickBot="1">
       <c r="A73" s="70" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B73" s="71" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C73" s="72"/>
       <c r="D73" s="72"/>
       <c r="E73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L73" s="73" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q73" s="72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R73" s="72"/>
     </row>
@@ -6567,7 +6589,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="30" customFormat="1" ht="18">
       <c r="A1" s="82" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -6596,7 +6618,7 @@
     </row>
     <row r="3" spans="1:19" s="30" customFormat="1" ht="38.25">
       <c r="A3" s="39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B3" s="38" t="str">
         <f>[2]UserRoles!A4</f>
@@ -6673,11 +6695,11 @@
     </row>
     <row r="4" spans="1:19" s="30" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6686,13 +6708,13 @@
       <c r="H4" s="34"/>
       <c r="I4" s="35"/>
       <c r="J4" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
@@ -6704,11 +6726,11 @@
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1">
       <c r="A5" s="36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -6717,7 +6739,7 @@
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -6731,11 +6753,11 @@
     </row>
     <row r="6" spans="1:19" s="30" customFormat="1">
       <c r="A6" s="36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -6744,7 +6766,7 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
@@ -6758,11 +6780,11 @@
     </row>
     <row r="7" spans="1:19" s="30" customFormat="1">
       <c r="A7" s="36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -6771,7 +6793,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
@@ -6785,11 +6807,11 @@
     </row>
     <row r="8" spans="1:19" s="30" customFormat="1">
       <c r="A8" s="36" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -6798,7 +6820,7 @@
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
@@ -6812,11 +6834,11 @@
     </row>
     <row r="9" spans="1:19" s="30" customFormat="1">
       <c r="A9" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="34"/>
@@ -6825,7 +6847,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -6839,32 +6861,32 @@
     </row>
     <row r="10" spans="1:19" s="30" customFormat="1">
       <c r="A10" s="36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O10" s="34"/>
       <c r="P10" s="34"/>
@@ -6874,120 +6896,120 @@
     </row>
     <row r="11" spans="1:19" s="30" customFormat="1">
       <c r="A11" s="36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R11" s="34"/>
       <c r="S11" s="34"/>
     </row>
     <row r="12" spans="1:19" s="30" customFormat="1">
       <c r="A12" s="36" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" s="30" customFormat="1" ht="13.5" thickBot="1">
       <c r="A13" s="33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
